--- a/forecast_summary_B0CTNYTX8Y.xlsx
+++ b/forecast_summary_B0CTNYTX8Y.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>3.107178493275828</v>
       </c>
       <c r="D2" t="n">
-        <v>10.59717333804146</v>
+        <v>10.13471999014289</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-7.242679642902218</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2913398648950064</v>
+        <v>0.3358687969826906</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-34.93176714977992</v>
       </c>
       <c r="D4" t="n">
-        <v>-27.58707023724639</v>
+        <v>-27.56379314906429</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-59.58125685871552</v>
       </c>
       <c r="D5" t="n">
-        <v>-52.40317836761748</v>
+        <v>-52.34609819232086</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-49.55779378427133</v>
       </c>
       <c r="D6" t="n">
-        <v>-42.76715334206822</v>
+        <v>-42.68172062644667</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>4.560276787595046</v>
       </c>
       <c r="D7" t="n">
-        <v>11.96074050475412</v>
+        <v>11.89528150145342</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>73.498798927474</v>
       </c>
       <c r="D8" t="n">
-        <v>80.52660846041478</v>
+        <v>80.57817758858926</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>112.9239855802394</v>
       </c>
       <c r="D9" t="n">
-        <v>120.1925436668418</v>
+        <v>120.359751075659</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>105.6143012718123</v>
       </c>
       <c r="D10" t="n">
-        <v>112.9037349554413</v>
+        <v>112.7174870300904</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>76.8109018298141</v>
       </c>
       <c r="D11" t="n">
-        <v>84.15676258261612</v>
+        <v>84.03408201612193</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>65.35803069791586</v>
       </c>
       <c r="D12" t="n">
-        <v>72.61190498373294</v>
+        <v>72.51139976511929</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>82.62808746182776</v>
       </c>
       <c r="D13" t="n">
-        <v>90.03885274024869</v>
+        <v>89.7640919051638</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>104.4069889962638</v>
       </c>
       <c r="D14" t="n">
-        <v>111.1692959313683</v>
+        <v>111.5823290510801</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>102.1720128511096</v>
       </c>
       <c r="D15" t="n">
-        <v>109.4987943314126</v>
+        <v>109.6591803592299</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>75.51515565190111</v>
       </c>
       <c r="D16" t="n">
-        <v>83.04222323895792</v>
+        <v>82.75612531847905</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>49.24107316496346</v>
       </c>
       <c r="D17" t="n">
-        <v>56.49430102345794</v>
+        <v>56.14159766244917</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>42.53854012795639</v>
       </c>
       <c r="D18" t="n">
-        <v>49.9391535675385</v>
+        <v>49.21007031900658</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>49.20877795511458</v>
       </c>
       <c r="D19" t="n">
-        <v>56.33404910660616</v>
+        <v>56.63689041404445</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>50.49162253712449</v>
       </c>
       <c r="D20" t="n">
-        <v>57.84784519789962</v>
+        <v>57.81426778500892</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>40.42140598216875</v>
       </c>
       <c r="D21" t="n">
-        <v>47.67723360500514</v>
+        <v>47.66364763897733</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650 UD AC</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
